--- a/2_genotype_analyzer/Setting_Genotype-Analyzer.xlsx
+++ b/2_genotype_analyzer/Setting_Genotype-Analyzer.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">Sequencing Method</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">FUT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
   </si>
   <si>
     <t xml:space="preserve">FUT3</t>
@@ -243,7 +246,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -304,7 +307,7 @@
         <v>15000</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -315,7 +318,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
